--- a/I1/ABM_DevilerablesAndRoles_1.12.xlsx
+++ b/I1/ABM_DevilerablesAndRoles_1.12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="88">
   <si>
     <t> Наименование</t>
   </si>
@@ -625,26 +625,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,11 +1384,9 @@
       <c r="B14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>8</v>
@@ -1747,105 +1745,105 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K28"/>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="M28" s="26"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K29"/>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K30"/>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="30" t="s">
+      <c r="M30" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K31"/>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K32"/>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="11:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K33"/>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="M33" s="30" t="s">
+      <c r="M33" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K34"/>
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="26"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K35"/>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="28" t="s">
+      <c r="M35" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K36"/>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="11:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K37"/>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="11:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="K38"/>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M38" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K39"/>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M39" s="31" t="s">
+      <c r="M39" s="29" t="s">
         <v>87</v>
       </c>
     </row>
